--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF826C-FA2C-47D3-9AFA-A43FE034F7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFB0F9-7E70-45BC-BB47-28AD84C78620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>ISIC 97T98</t>
   </si>
@@ -44,9 +44,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -267,6 +264,12 @@
   </si>
   <si>
     <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
   </si>
 </sst>
 </file>
@@ -782,15 +785,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -800,7 +803,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,22 +813,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -835,7 +838,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -845,47 +848,47 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -910,27 +913,27 @@
   <sheetData>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>43</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>57</v>
@@ -950,7 +953,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -970,7 +973,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>46</v>
@@ -990,7 +993,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -1010,7 +1013,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <f>14+26</f>
@@ -1032,30 +1035,30 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>44</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3">
         <f>B26/SUM(B$26:B$30)</f>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" ref="B34:F37" si="1">B27/SUM(B$26:B$30)</f>
@@ -1113,7 +1116,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="1"/>
@@ -1142,7 +1145,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="1"/>
@@ -1171,7 +1174,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" si="1"/>
@@ -1200,20 +1203,20 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87">
         <f>6.03-3.19</f>
@@ -1222,7 +1225,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88">
         <f>2.89-1.63</f>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89">
         <f>8.92-4.82</f>
@@ -1240,12 +1243,12 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92">
         <f>19.3-11.6</f>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B93">
         <f>13.8-11</f>
@@ -1271,17 +1274,17 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B97">
         <f>B87/SUM(B$87:B$89)</f>
@@ -1290,7 +1293,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B98">
         <f>B88/SUM(B$87:B$89)</f>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B99">
         <f>B89/SUM(B$87:B$89)</f>
@@ -1308,12 +1311,12 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B101">
         <f>B91/SUM(B$91:B$93)</f>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102">
         <f t="shared" ref="B102:B103" si="3">B92/SUM(B$91:B$93)</f>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B103">
         <f t="shared" si="3"/>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1352,7 @@
         <v>22600000</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,17 +1361,17 @@
         <v>23222760</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B110">
         <f>A$106/SUM($A$106:$A$107)*B101+A$107/SUM($A$106:$A$107)*B97</f>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B111">
         <f t="shared" ref="B111:B112" si="4">A$106/SUM($A$106:$A$107)*B102+A$107/SUM($A$106:$A$107)*B98</f>
@@ -1386,7 +1389,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112">
         <f t="shared" si="4"/>
@@ -1417,135 +1420,138 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="38" width="9.85546875" customWidth="1"/>
+    <col min="2" max="39" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1599,11 +1605,11 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>0.5</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
@@ -1614,11 +1620,11 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>0.2</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
         <v>0</v>
       </c>
@@ -1641,11 +1647,11 @@
         <v>0</v>
       </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>0.3</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
       <c r="AI2">
         <v>0</v>
       </c>
@@ -1656,6 +1662,9 @@
         <v>0</v>
       </c>
       <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>0</v>
       </c>
     </row>

--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFB0F9-7E70-45BC-BB47-28AD84C78620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DABA530-C33B-4F73-A967-9FDE6D8AA718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>ISIC 97T98</t>
   </si>
@@ -68,12 +68,6 @@
     <t>ISIC 22</t>
   </si>
   <si>
-    <t>ISIC 23</t>
-  </si>
-  <si>
-    <t>ISIC 24</t>
-  </si>
-  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
-    <t>ISIC 35T39</t>
-  </si>
-  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -270,6 +261,27 @@
   </si>
   <si>
     <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>ISIC 231</t>
+  </si>
+  <si>
+    <t>ISIC 239</t>
+  </si>
+  <si>
+    <t>ISIC 241</t>
+  </si>
+  <si>
+    <t>ISIC 242</t>
+  </si>
+  <si>
+    <t>ISIC 351</t>
+  </si>
+  <si>
+    <t>ISIC 352T353</t>
+  </si>
+  <si>
+    <t>ISIC 36T39</t>
   </si>
 </sst>
 </file>
@@ -785,15 +797,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -803,7 +815,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -813,22 +825,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -838,7 +850,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,47 +860,47 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -913,27 +925,27 @@
   <sheetData>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>57</v>
@@ -953,7 +965,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -973,7 +985,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>46</v>
@@ -993,7 +1005,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -1013,7 +1025,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <f>14+26</f>
@@ -1035,30 +1047,30 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F32" t="s">
         <v>41</v>
       </c>
-      <c r="D32" t="s">
+      <c r="H32" t="s">
         <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <f>B26/SUM(B$26:B$30)</f>
@@ -1087,7 +1099,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" ref="B34:F37" si="1">B27/SUM(B$26:B$30)</f>
@@ -1116,7 +1128,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="1"/>
@@ -1145,7 +1157,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="1"/>
@@ -1174,7 +1186,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" si="1"/>
@@ -1203,20 +1215,20 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B87">
         <f>6.03-3.19</f>
@@ -1225,7 +1237,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B88">
         <f>2.89-1.63</f>
@@ -1234,7 +1246,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B89">
         <f>8.92-4.82</f>
@@ -1243,12 +1255,12 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1256,7 +1268,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B92">
         <f>19.3-11.6</f>
@@ -1265,7 +1277,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B93">
         <f>13.8-11</f>
@@ -1274,17 +1286,17 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B97">
         <f>B87/SUM(B$87:B$89)</f>
@@ -1293,7 +1305,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B98">
         <f>B88/SUM(B$87:B$89)</f>
@@ -1302,7 +1314,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B99">
         <f>B89/SUM(B$87:B$89)</f>
@@ -1311,12 +1323,12 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B101">
         <f>B91/SUM(B$91:B$93)</f>
@@ -1325,7 +1337,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B102">
         <f t="shared" ref="B102:B103" si="3">B92/SUM(B$91:B$93)</f>
@@ -1334,7 +1346,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B103">
         <f t="shared" si="3"/>
@@ -1343,7 +1355,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1364,7 @@
         <v>22600000</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,17 +1373,17 @@
         <v>23222760</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B110">
         <f>A$106/SUM($A$106:$A$107)*B101+A$107/SUM($A$106:$A$107)*B97</f>
@@ -1380,7 +1392,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B111">
         <f t="shared" ref="B111:B112" si="4">A$106/SUM($A$106:$A$107)*B102+A$107/SUM($A$106:$A$107)*B98</f>
@@ -1389,7 +1401,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B112">
         <f t="shared" si="4"/>
@@ -1420,28 +1432,31 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="39" width="9.85546875" customWidth="1"/>
+    <col min="2" max="26" width="9.85546875" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" customWidth="1"/>
+    <col min="29" max="43" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -1465,93 +1480,105 @@
         <v>8</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1608,14 +1635,14 @@
         <v>0</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>0.5</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
@@ -1623,20 +1650,20 @@
         <v>0</v>
       </c>
       <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>0.2</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -1650,21 +1677,33 @@
         <v>0</v>
       </c>
       <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>0.3</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>0</v>
       </c>
     </row>

--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\indst\SoCaOMSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DABA530-C33B-4F73-A967-9FDE6D8AA718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="CCS Data" sheetId="3" r:id="rId2"/>
     <sheet name="Industry EE" sheetId="4" r:id="rId3"/>
-    <sheet name="SoCaOMSbRIC" sheetId="1" r:id="rId4"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="5" r:id="rId4"/>
+    <sheet name="SoCaOMSbRIC" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
   <si>
     <t>ISIC 97T98</t>
   </si>
@@ -282,12 +282,24 @@
   </si>
   <si>
     <t>ISIC 36T39</t>
+  </si>
+  <si>
+    <t>EU ISIC Consolidation</t>
+  </si>
+  <si>
+    <t>Default EPS ISIC Groupings</t>
+  </si>
+  <si>
+    <t>EU ISIC Groupings</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -323,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +369,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -365,6 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -788,19 +807,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -813,32 +832,32 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -848,82 +867,82 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -943,7 +962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -963,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1003,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1023,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1068,7 +1087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1097,7 +1116,7 @@
         <v>0.40358302858715744</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1145,7 @@
         <v>9.0808855334041122E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1155,7 +1174,7 @@
         <v>0.24964177578545868</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>7.2036490896936797E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1213,7 +1232,7 @@
         <v>0.18392984939640594</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1221,12 +1240,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1254,7 @@
         <v>2.8400000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>1.2600000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -1253,12 +1272,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -1266,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -1275,7 +1294,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -1284,17 +1303,17 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -1303,7 +1322,7 @@
         <v>0.34634146341463423</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -1312,7 +1331,7 @@
         <v>0.15365853658536591</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -1321,12 +1340,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -1335,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -1353,12 +1372,12 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <f>22600000</f>
         <v>22600000</v>
@@ -1367,7 +1386,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <f>9.64*550*8760*0.5</f>
         <v>23222760</v>
@@ -1376,12 +1395,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>0.17552423038085946</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -1399,7 +1418,7 @@
         <v>0.43955686323579163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -1415,12 +1434,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1428,24 +1447,662 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.2</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0.3</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AQ2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="26" width="9.85546875" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" customWidth="1"/>
-    <col min="29" max="43" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="2" max="26" width="9.86328125" customWidth="1"/>
+    <col min="27" max="27" width="12.86328125" customWidth="1"/>
+    <col min="28" max="28" width="10.59765625" customWidth="1"/>
+    <col min="29" max="43" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1576,134 +2233,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!B1)</f>
         <v>0</v>
       </c>
       <c r="C2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!C1)</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!D1)</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!E1)</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!F1)</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!G1)</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!H1)</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!I1)</f>
         <v>0</v>
       </c>
       <c r="J2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!J1)</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!K1)</f>
         <v>0</v>
       </c>
       <c r="L2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!L1)</f>
         <v>0</v>
       </c>
       <c r="M2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!M1)</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!N1)</f>
         <v>0</v>
       </c>
       <c r="O2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!O1)</f>
         <v>0</v>
       </c>
       <c r="P2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!P1)</f>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Q1)</f>
         <v>0</v>
       </c>
       <c r="R2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!R1)</f>
         <v>0</v>
       </c>
       <c r="S2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!S1)</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!T1)</f>
         <v>0</v>
       </c>
       <c r="U2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!U1)</f>
         <v>0</v>
       </c>
       <c r="V2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!V1)</f>
         <v>0.5</v>
       </c>
       <c r="W2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!W1)</f>
         <v>0</v>
       </c>
       <c r="X2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!X1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Y1)</f>
+        <v>0.2</v>
       </c>
       <c r="Z2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.2</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AC1)</f>
+        <v>0</v>
       </c>
       <c r="AD2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AL1)</f>
         <v>0.3</v>
       </c>
       <c r="AM2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AP1)</f>
         <v>0</v>
       </c>
       <c r="AQ2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AQ1)</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\indst\SoCaOMSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\indst\SoCaOMSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE738225-E526-4358-816A-7BC74A2B7FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830"/>
+    <workbookView xWindow="-28110" yWindow="945" windowWidth="25995" windowHeight="13605" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Pre ISIC Consolidation" sheetId="5" r:id="rId4"/>
     <sheet name="SoCaOMSbRIC" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -299,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -807,19 +811,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -832,32 +836,32 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -867,82 +871,82 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A25:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -962,7 +966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -982,7 +986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>0.40358302858715744</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>9.0808855334041122E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>0.24964177578545868</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>7.2036490896936797E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>0.18392984939640594</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1240,12 +1244,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>2.8400000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>1.2600000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -1272,12 +1276,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -1303,17 +1307,17 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>0.34634146341463423</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>0.15365853658536591</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -1340,12 +1344,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -1372,12 +1376,12 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <f>22600000</f>
         <v>22600000</v>
@@ -1386,7 +1390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <f>9.64*550*8760*0.5</f>
         <v>23222760</v>
@@ -1395,12 +1399,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>0.17552423038085946</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>0.43955686323579163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -1434,12 +1438,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1447,19 +1451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>85</v>
       </c>
@@ -1506,7 +1510,7 @@
       <c r="AP1" s="9"/>
       <c r="AQ1" s="9"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>82</v>
       </c>
@@ -1815,7 +1819,7 @@
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>3</v>
@@ -1987,7 +1991,7 @@
         <v>72</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>75</v>
@@ -2002,13 +2006,13 @@
         <v>78</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>13</v>
@@ -2017,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>16</v>
@@ -2083,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2093,16 +2097,16 @@
       <selection activeCell="B2" sqref="B2:AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
-    <col min="2" max="26" width="9.86328125" customWidth="1"/>
-    <col min="27" max="27" width="12.86328125" customWidth="1"/>
-    <col min="28" max="28" width="10.59765625" customWidth="1"/>
-    <col min="29" max="43" width="9.86328125" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="26" width="9.81640625" customWidth="1"/>
+    <col min="27" max="27" width="12.81640625" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" customWidth="1"/>
+    <col min="29" max="43" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>

--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\indst\SoCaOMSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DABA530-C33B-4F73-A967-9FDE6D8AA718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830"/>
+    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="CCS Data" sheetId="3" r:id="rId2"/>
     <sheet name="Industry EE" sheetId="4" r:id="rId3"/>
-    <sheet name="Pre ISIC Consolidation" sheetId="5" r:id="rId4"/>
-    <sheet name="SoCaOMSbRIC" sheetId="1" r:id="rId5"/>
+    <sheet name="SoCaOMSbRIC" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>ISIC 97T98</t>
   </si>
@@ -282,24 +282,12 @@
   </si>
   <si>
     <t>ISIC 36T39</t>
-  </si>
-  <si>
-    <t>EU ISIC Consolidation</t>
-  </si>
-  <si>
-    <t>Default EPS ISIC Groupings</t>
-  </si>
-  <si>
-    <t>EU ISIC Groupings</t>
-  </si>
-  <si>
-    <t>Industry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -335,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,12 +333,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +351,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -383,7 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -807,19 +788,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -832,32 +813,32 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -867,82 +848,82 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A25:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -962,7 +943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -982,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1002,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1022,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1042,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1064,7 +1045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1097,7 @@
         <v>0.40358302858715744</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1126,7 @@
         <v>9.0808855334041122E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1174,7 +1155,7 @@
         <v>0.24964177578545868</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1184,7 @@
         <v>7.2036490896936797E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1213,7 @@
         <v>0.18392984939640594</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1240,12 +1221,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -1254,7 +1235,7 @@
         <v>2.8400000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -1263,7 +1244,7 @@
         <v>1.2600000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -1272,12 +1253,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -1285,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -1294,7 +1275,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -1303,17 +1284,17 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -1322,7 +1303,7 @@
         <v>0.34634146341463423</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -1331,7 +1312,7 @@
         <v>0.15365853658536591</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -1340,12 +1321,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -1354,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -1363,7 +1344,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -1372,12 +1353,12 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>22600000</f>
         <v>22600000</v>
@@ -1386,7 +1367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>9.64*550*8760*0.5</f>
         <v>23222760</v>
@@ -1395,12 +1376,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -1409,7 +1390,7 @@
         <v>0.17552423038085946</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -1418,7 +1399,7 @@
         <v>0.43955686323579163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -1434,12 +1415,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1447,662 +1428,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:AQ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.5</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0.2</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0.3</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ6" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AQ2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
-    <col min="2" max="26" width="9.86328125" customWidth="1"/>
-    <col min="27" max="27" width="12.86328125" customWidth="1"/>
-    <col min="28" max="28" width="10.59765625" customWidth="1"/>
-    <col min="29" max="43" width="9.86328125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="26" width="9.85546875" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" customWidth="1"/>
+    <col min="29" max="43" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2233,176 +1576,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!B1)</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!C1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!D1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!E1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!F1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!G1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!H1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!I1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!J1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!K1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!L1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!M1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!N1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!O1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!P1)</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Q1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!R1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!S1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!T1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!U1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!V1)</f>
         <v>0.5</v>
       </c>
       <c r="W2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!W1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!X1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>0.2</v>
       </c>
-      <c r="Z2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Z1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AA1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AB1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AC1)</f>
-        <v>0</v>
-      </c>
       <c r="AD2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AL1)</f>
         <v>0.3</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AP1)</f>
         <v>0</v>
       </c>
       <c r="AQ2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AQ1)</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\indst\SoCaOMSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE738225-E526-4358-816A-7BC74A2B7FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DABA530-C33B-4F73-A967-9FDE6D8AA718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28110" yWindow="945" windowWidth="25995" windowHeight="13605" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="CCS Data" sheetId="3" r:id="rId2"/>
     <sheet name="Industry EE" sheetId="4" r:id="rId3"/>
-    <sheet name="Pre ISIC Consolidation" sheetId="5" r:id="rId4"/>
-    <sheet name="SoCaOMSbRIC" sheetId="1" r:id="rId5"/>
+    <sheet name="SoCaOMSbRIC" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>ISIC 97T98</t>
   </si>
@@ -286,18 +282,6 @@
   </si>
   <si>
     <t>ISIC 36T39</t>
-  </si>
-  <si>
-    <t>EU ISIC Consolidation</t>
-  </si>
-  <si>
-    <t>Default EPS ISIC Groupings</t>
-  </si>
-  <si>
-    <t>EU ISIC Groupings</t>
-  </si>
-  <si>
-    <t>Industry</t>
   </si>
 </sst>
 </file>
@@ -339,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +333,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +351,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -387,7 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -814,16 +791,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -836,32 +813,32 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -871,57 +848,57 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -941,12 +918,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -966,7 +943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -986,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1006,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1046,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1068,7 +1045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1091,7 +1068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1120,7 +1097,7 @@
         <v>0.40358302858715744</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1126,7 @@
         <v>9.0808855334041122E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1155,7 @@
         <v>0.24964177578545868</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1184,7 @@
         <v>7.2036490896936797E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1236,7 +1213,7 @@
         <v>0.18392984939640594</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1244,12 +1221,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -1258,7 +1235,7 @@
         <v>2.8400000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -1267,7 +1244,7 @@
         <v>1.2600000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -1276,12 +1253,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -1289,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -1298,7 +1275,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -1307,17 +1284,17 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1303,7 @@
         <v>0.34634146341463423</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -1335,7 +1312,7 @@
         <v>0.15365853658536591</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -1344,12 +1321,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -1358,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -1367,7 +1344,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -1376,12 +1353,12 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>22600000</f>
         <v>22600000</v>
@@ -1390,7 +1367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>9.64*550*8760*0.5</f>
         <v>23222760</v>
@@ -1399,12 +1376,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -1413,7 +1390,7 @@
         <v>0.17552423038085946</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1399,7 @@
         <v>0.43955686323579163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -1443,7 +1420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1453,660 +1430,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:AQ7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.5</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0.2</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0.3</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ6" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AQ2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="26" width="9.81640625" customWidth="1"/>
-    <col min="27" max="27" width="12.81640625" customWidth="1"/>
-    <col min="28" max="28" width="10.6328125" customWidth="1"/>
-    <col min="29" max="43" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="26" width="9.85546875" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" customWidth="1"/>
+    <col min="29" max="43" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2237,176 +1576,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!B1)</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!C1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!D1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!E1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!F1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!G1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!H1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!I1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!J1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!K1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!L1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!M1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!N1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!O1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!P1)</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Q1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!R1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!S1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!T1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!U1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!V1)</f>
         <v>0.5</v>
       </c>
       <c r="W2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!W1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!X1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>0.2</v>
       </c>
-      <c r="Z2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!Z1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AA1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AB1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AC1)</f>
-        <v>0</v>
-      </c>
       <c r="AD2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AL1)</f>
         <v>0.3</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AP1)</f>
         <v>0</v>
       </c>
       <c r="AQ2">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoCaOMSbRIC!AQ1)</f>
         <v>0</v>
       </c>
     </row>
